--- a/teaching/traditional_assets/database/data/latvia/latvia_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/latvia/latvia_apparel.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0799</v>
+        <v>-0.0164</v>
       </c>
       <c r="G2">
-        <v>-0.02407407407407407</v>
+        <v>-0.04008438818565401</v>
       </c>
       <c r="H2">
-        <v>-0.02407407407407407</v>
+        <v>-0.04008438818565401</v>
       </c>
       <c r="I2">
-        <v>-0.01296296296296296</v>
+        <v>-0.1054852320675106</v>
       </c>
       <c r="J2">
-        <v>-0.01296296296296296</v>
+        <v>-0.1054852320675106</v>
       </c>
       <c r="K2">
-        <v>0.008999999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="L2">
-        <v>0.008333333333333331</v>
+        <v>-0.08438818565400845</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,61 +627,61 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.08599999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="V2">
-        <v>0.1362916006339144</v>
+        <v>0.1130718954248366</v>
       </c>
       <c r="W2">
-        <v>0.005921052631578947</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="X2">
-        <v>0.06532453810868484</v>
+        <v>0.06007044195043747</v>
       </c>
       <c r="Y2">
-        <v>-0.0594034854771059</v>
+        <v>-0.1164084701194515</v>
       </c>
       <c r="Z2">
-        <v>0.7670454545454546</v>
+        <v>0.6975717439293599</v>
       </c>
       <c r="AA2">
-        <v>-0.00994318181818182</v>
+        <v>-0.07358351729212657</v>
       </c>
       <c r="AB2">
-        <v>0.06429942636013786</v>
+        <v>0.05969669782470365</v>
       </c>
       <c r="AC2">
-        <v>-0.07424260817831968</v>
+        <v>-0.1332802151168302</v>
       </c>
       <c r="AD2">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AG2">
-        <v>-0.06099999999999999</v>
+        <v>-0.152</v>
       </c>
       <c r="AH2">
-        <v>0.03810975609756097</v>
+        <v>0.01353965183752418</v>
       </c>
       <c r="AI2">
-        <v>0.01730103806228374</v>
+        <v>0.01389808074123097</v>
       </c>
       <c r="AJ2">
-        <v>-0.1070175438596491</v>
+        <v>-0.1103047895500726</v>
       </c>
       <c r="AK2">
-        <v>-0.0448859455481972</v>
+        <v>-0.1136023916292974</v>
       </c>
       <c r="AL2">
         <v>0.001</v>
@@ -690,16 +690,16 @@
         <v>0.001</v>
       </c>
       <c r="AN2">
-        <v>5</v>
+        <v>-0.2658227848101266</v>
       </c>
       <c r="AO2">
-        <v>-14</v>
+        <v>-100</v>
       </c>
       <c r="AP2">
-        <v>-12.2</v>
+        <v>1.924050632911392</v>
       </c>
       <c r="AQ2">
-        <v>-14</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0799</v>
+        <v>-0.0164</v>
       </c>
       <c r="G3">
-        <v>-0.02407407407407407</v>
+        <v>-0.04008438818565401</v>
       </c>
       <c r="H3">
-        <v>-0.02407407407407407</v>
+        <v>-0.04008438818565401</v>
       </c>
       <c r="I3">
-        <v>-0.01296296296296296</v>
+        <v>-0.1054852320675106</v>
       </c>
       <c r="J3">
-        <v>-0.01296296296296296</v>
+        <v>-0.1054852320675106</v>
       </c>
       <c r="K3">
-        <v>0.008999999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="L3">
-        <v>0.008333333333333331</v>
+        <v>-0.08438818565400845</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,61 +755,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.08599999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="V3">
-        <v>0.1362916006339144</v>
+        <v>0.1130718954248366</v>
       </c>
       <c r="W3">
-        <v>0.005921052631578947</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="X3">
-        <v>0.06532453810868484</v>
+        <v>0.06007044195043747</v>
       </c>
       <c r="Y3">
-        <v>-0.0594034854771059</v>
+        <v>-0.1164084701194515</v>
       </c>
       <c r="Z3">
-        <v>0.7670454545454546</v>
+        <v>0.6975717439293599</v>
       </c>
       <c r="AA3">
-        <v>-0.00994318181818182</v>
+        <v>-0.07358351729212657</v>
       </c>
       <c r="AB3">
-        <v>0.06429942636013786</v>
+        <v>0.05969669782470365</v>
       </c>
       <c r="AC3">
-        <v>-0.07424260817831968</v>
+        <v>-0.1332802151168302</v>
       </c>
       <c r="AD3">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AG3">
-        <v>-0.06099999999999999</v>
+        <v>-0.152</v>
       </c>
       <c r="AH3">
-        <v>0.03810975609756097</v>
+        <v>0.01353965183752418</v>
       </c>
       <c r="AI3">
-        <v>0.01730103806228374</v>
+        <v>0.01389808074123097</v>
       </c>
       <c r="AJ3">
-        <v>-0.1070175438596491</v>
+        <v>-0.1103047895500726</v>
       </c>
       <c r="AK3">
-        <v>-0.0448859455481972</v>
+        <v>-0.1136023916292974</v>
       </c>
       <c r="AL3">
         <v>0.001</v>
@@ -818,16 +818,16 @@
         <v>0.001</v>
       </c>
       <c r="AN3">
-        <v>5</v>
+        <v>-0.2658227848101266</v>
       </c>
       <c r="AO3">
-        <v>-14</v>
+        <v>-100</v>
       </c>
       <c r="AP3">
-        <v>-12.2</v>
+        <v>1.924050632911392</v>
       </c>
       <c r="AQ3">
-        <v>-14</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
